--- a/data/trans_camb/P29_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.668449299320166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.709466845037293</v>
+        <v>-6.709466845037304</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.011656977747679</v>
@@ -664,7 +664,7 @@
         <v>4.203627084187389</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.407982266467545</v>
+        <v>-1.40798226646755</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.150425801312919</v>
+        <v>-2.174070315147753</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9468232610354742</v>
+        <v>-2.339255500120453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.54921218557451</v>
+        <v>-16.0543192293997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.55177586130556</v>
+        <v>-2.889411064583807</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.20679827423957</v>
+        <v>-2.738884809400497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.849059584964093</v>
+        <v>-3.588228751565242</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4139092988671886</v>
+        <v>-0.5710401440367799</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2442315104500039</v>
+        <v>-0.3670929067471558</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.118221748966541</v>
+        <v>-7.514031141050475</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.46095067808355</v>
+        <v>11.46246128703818</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.56629241990194</v>
+        <v>10.95486460141641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.951850302044889</v>
+        <v>1.799451553960449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.333361386983189</v>
+        <v>8.991994270703401</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.6107199617661</v>
+        <v>11.02348080992608</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.08424144996535</v>
+        <v>12.67627820407028</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.595270601714381</v>
+        <v>8.601834327885811</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.706785531101858</v>
+        <v>8.897896476804426</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.963618575923334</v>
+        <v>4.790973349707428</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.08216624343087885</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1180888236616441</v>
+        <v>-0.1180888236616443</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07552496898589767</v>
@@ -769,7 +769,7 @@
         <v>0.08652854394858432</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.02898227006890065</v>
+        <v>-0.02898227006890077</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01974160594860789</v>
+        <v>-0.03534692443519694</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01587095187456319</v>
+        <v>-0.03902853983409042</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2719937980194083</v>
+        <v>-0.2700819033424088</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08277543984449511</v>
+        <v>-0.06880364210966643</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07389977561479379</v>
+        <v>-0.06292358945890306</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1159756178815485</v>
+        <v>-0.08914967099883153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.008086618838959721</v>
+        <v>-0.0111048972881761</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.00443300874032019</v>
+        <v>-0.007192259370685369</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1404096465220864</v>
+        <v>-0.1522827570908586</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.214113610956802</v>
+        <v>0.2141712861323494</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2164496395765319</v>
+        <v>0.2046021285897911</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05287179736839149</v>
+        <v>0.03496074909707336</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2564205115674612</v>
+        <v>0.2407033772721129</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2919598991824658</v>
+        <v>0.301414041788466</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3387881791334398</v>
+        <v>0.330183808529269</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1840935704927886</v>
+        <v>0.1865182878650015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1872029515641197</v>
+        <v>0.1889263253119057</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.107959460397059</v>
+        <v>0.1019551577772708</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-6.156507238559361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.054436402732255</v>
+        <v>-6.054436402732244</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1355010629978115</v>
@@ -869,7 +869,7 @@
         <v>5.518158997887396</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.88755028505313</v>
+        <v>8.887550285053136</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.3641828760366672</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.721668840429466</v>
+        <v>-5.324909019188213</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.61460170124301</v>
+        <v>-11.45244915924279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.57420733263274</v>
+        <v>-13.5498986978585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.255976218573654</v>
+        <v>-5.004783486402363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1045062209336051</v>
+        <v>-0.02609495053569847</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.911253953569705</v>
+        <v>2.91685253896844</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.29798808842293</v>
+        <v>-4.14674801119548</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.488678866400143</v>
+        <v>-5.853712737621539</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.753861297556309</v>
+        <v>-4.750242959245968</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.95982044481849</v>
+        <v>4.273985678979667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.6838165344667645</v>
+        <v>-1.099773983067075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2565624237787105</v>
+        <v>0.2522797489965064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.523135151743877</v>
+        <v>5.790254134423409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.26870853329149</v>
+        <v>11.16165438861762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.42070304065787</v>
+        <v>14.8307574927145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.826720750132152</v>
+        <v>4.263978285725361</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.66044766307166</v>
+        <v>2.57170053964716</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.609361102628027</v>
+        <v>4.532303388916946</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.09022146577137921</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.08872565328160356</v>
+        <v>-0.08872565328160339</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.003882926828059791</v>
@@ -974,7 +974,7 @@
         <v>0.1581287049736471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.25468218974873</v>
+        <v>0.2546821897487301</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.006882478956869712</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08032181026161814</v>
+        <v>-0.0741563977564529</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1640512898576765</v>
+        <v>-0.1627136507060099</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1917298726000194</v>
+        <v>-0.1932167240237108</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1394766288044263</v>
+        <v>-0.1345728206545872</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0007933796122999052</v>
+        <v>-0.00164749885329143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0766098523529947</v>
+        <v>0.08003274181658138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0790309900288461</v>
+        <v>-0.07635828309383301</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.102033986097638</v>
+        <v>-0.1058411825918648</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08708731351977279</v>
+        <v>-0.08793422929062225</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07526776961979056</v>
+        <v>0.06440003548851296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01107340367108315</v>
+        <v>-0.01675525732716104</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.003393088808767394</v>
+        <v>0.003861134205884659</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1750221292174775</v>
+        <v>0.1823561545113347</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3566707172426615</v>
+        <v>0.3457519069128401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4821007967933426</v>
+        <v>0.4682040019587427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.075519656633528</v>
+        <v>0.08405582953330988</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05035106024537087</v>
+        <v>0.05014408506626513</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09022634974126706</v>
+        <v>0.08929788730269168</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.690093961802452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.592099033423922</v>
+        <v>-1.592099033423944</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.010763936312421</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.398950185780635</v>
+        <v>-5.493590920043545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.914930693066084</v>
+        <v>-3.331297595206532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.24907261486524</v>
+        <v>-6.726571536728899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.052184618471907</v>
+        <v>-3.273505207657344</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2994921197200524</v>
+        <v>0.4605291244328155</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.358793121775881</v>
+        <v>2.1880981859806</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.83647689975674</v>
+        <v>-2.69600936490622</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02872604865817535</v>
+        <v>0.3013728773246245</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2428631051897774</v>
+        <v>-0.969128264695982</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.613494395926192</v>
+        <v>5.38005579609014</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.947590483649782</v>
+        <v>7.262630742396356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.417527138223129</v>
+        <v>4.006190950682801</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.410811382444447</v>
+        <v>6.888228683139435</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.70925293181808</v>
+        <v>11.01306689826158</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.48878229077956</v>
+        <v>11.8637512989761</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.225247560291369</v>
+        <v>4.946685541521456</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.744177595528128</v>
+        <v>8.21925916551826</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.124967163798934</v>
+        <v>7.35924210523821</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02686494995871157</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02530726801522418</v>
+        <v>-0.02530726801522453</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06184098232461552</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08221292370810045</v>
+        <v>-0.08224413440514766</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05959970428828062</v>
+        <v>-0.04960585828716661</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1110226164085815</v>
+        <v>-0.1032222609768378</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08643309432995468</v>
+        <v>-0.09398589753982137</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008972834933586166</v>
+        <v>0.01066429146451524</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06504988448263613</v>
+        <v>0.06605337656821922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05646721752129207</v>
+        <v>-0.05600839754677753</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0006009464223414179</v>
+        <v>0.007024237568116179</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.004942164114255436</v>
+        <v>-0.01981619207629196</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0943665390146598</v>
+        <v>0.09076434267866307</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1161433244054163</v>
+        <v>0.1209359694382703</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07737073560123599</v>
+        <v>0.06682818151393508</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2482700228152777</v>
+        <v>0.2324652393464809</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3587518519179768</v>
+        <v>0.3632197774100439</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.409176431087939</v>
+        <v>0.3979813625197703</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1155175827565326</v>
+        <v>0.1102088621568705</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1701997088959606</v>
+        <v>0.182860281554263</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1586432883418475</v>
+        <v>0.1615062019239348</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.08311188892003996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.131715829394631</v>
+        <v>-1.131715829394608</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.977628117838708</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.572128461599698</v>
+        <v>-2.345773664253407</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.855907470661652</v>
+        <v>-5.467803710762483</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.98433547379201</v>
+        <v>-7.043359853647988</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.432716224085862</v>
+        <v>1.204864982180367</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.221009792216682</v>
+        <v>7.763875525139126</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.834734182724191</v>
+        <v>7.403036315683644</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.116091769293545</v>
+        <v>1.195756427210245</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.515943695099171</v>
+        <v>1.993163144373884</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.456056690253256</v>
+        <v>1.613017058276334</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.25355271727063</v>
+        <v>10.1304230768558</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.708046162270525</v>
+        <v>6.086177793635965</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.667953284572259</v>
+        <v>4.923879962849171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.829818975588</v>
+        <v>12.42923119829821</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.76187207876089</v>
+        <v>18.63512447446572</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.30070584381701</v>
+        <v>17.54941263056579</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.686973637916292</v>
+        <v>10.02700002669954</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.99554586993841</v>
+        <v>10.51990221097673</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.582261780565736</v>
+        <v>9.551772834072828</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.001376334616548183</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.01874123777393531</v>
+        <v>-0.01874123777393494</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2477888616877161</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0264343899295402</v>
+        <v>-0.03698061129226513</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09196863134381163</v>
+        <v>-0.08767343638074233</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1100267098816255</v>
+        <v>-0.111173533690523</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0451464609047994</v>
+        <v>0.03602268853213324</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2392314607833838</v>
+        <v>0.2489400051722179</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.247180671433471</v>
+        <v>0.227982137350956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02408409918842323</v>
+        <v>0.02645372973480276</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05248184165312829</v>
+        <v>0.04247360013893905</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03564088805222112</v>
+        <v>0.03322988754040726</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1793368811612107</v>
+        <v>0.1782039657266644</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09992280159122287</v>
+        <v>0.1070272537756452</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08235876783973506</v>
+        <v>0.08754360386114651</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5103427121321261</v>
+        <v>0.486105104823972</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7553223850426694</v>
+        <v>0.7399946383222211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7031566290028379</v>
+        <v>0.700193082770894</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2274645347115865</v>
+        <v>0.2389759233005476</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2613763847079774</v>
+        <v>0.2525511937015517</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2313546312727503</v>
+        <v>0.2292324141226063</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.54889857534908</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10.24039221218737</v>
+        <v>10.24039221218736</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.381521892462194</v>
@@ -1520,7 +1520,7 @@
         <v>10.77368359041215</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>13.52078700298356</v>
+        <v>13.52078700298355</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2137969823593737</v>
+        <v>-0.01926322403221402</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.497106132330955</v>
+        <v>6.587592045486143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.175187190714641</v>
+        <v>3.387354162239052</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6459938013466422</v>
+        <v>0.9530801200776519</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.001212969010249</v>
+        <v>2.526950096546442</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.88912529526345</v>
+        <v>11.13908007891499</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.042686587437863</v>
+        <v>1.704049617003402</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.393644619022074</v>
+        <v>6.092686545185842</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.661959590067966</v>
+        <v>8.907484203539932</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.5919777182293</v>
+        <v>14.5163697049317</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.13681005887298</v>
+        <v>20.30936413216875</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.00953842798405</v>
+        <v>16.16775659940084</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.92056440310315</v>
+        <v>12.29876590761022</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.23518309663659</v>
+        <v>14.29916542747091</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.79978960731788</v>
+        <v>20.97981649849953</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.47543958578681</v>
+        <v>11.58851157831538</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.49425944434935</v>
+        <v>15.5746381608704</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.48402485466364</v>
+        <v>17.67024043475164</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2909351526508746</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2198916801162046</v>
+        <v>0.2198916801162043</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3417537099128</v>
@@ -1625,7 +1625,7 @@
         <v>0.3333776646468114</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4183832166050445</v>
+        <v>0.4183832166050442</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.002584709637227345</v>
+        <v>-0.000383735414788318</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1116476746535189</v>
+        <v>0.1329150321378517</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08583923042249045</v>
+        <v>0.0730054387641775</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.02961164940801914</v>
+        <v>0.04176129991983053</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09561507407143946</v>
+        <v>0.112453407837179</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4780007824285658</v>
+        <v>0.4940898036229733</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06013558535202653</v>
+        <v>0.04804716342987941</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1855498766444048</v>
+        <v>0.1769202487394562</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2815716750007484</v>
+        <v>0.25526810990778</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3353698887018619</v>
+        <v>0.3389070673496571</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4745070689311146</v>
+        <v>0.4708044593176205</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3841555918927184</v>
+        <v>0.3905258276093689</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7375195832279455</v>
+        <v>0.8267973057434483</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.831569594621456</v>
+        <v>0.9050941622443003</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.34045942951632</v>
+        <v>1.34986389815856</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3865894431323911</v>
+        <v>0.3861196691709596</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5146839063157228</v>
+        <v>0.5216524918592004</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5966340930145806</v>
+        <v>0.599183467791347</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.499805867253897</v>
+        <v>-2.80617763653019</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.7634969055175524</v>
+        <v>0.9488579665016834</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.83220143827927</v>
+        <v>6.811443740918691</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.438585191148442</v>
+        <v>2.594198306713444</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.019714228926504</v>
+        <v>4.439339509944043</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>13.34144927022768</v>
+        <v>13.35297318031996</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.75203621208624</v>
+        <v>1.889427921692758</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.982125244817487</v>
+        <v>4.084182603421805</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>12.42293939072353</v>
+        <v>11.85066995663683</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.06574152444816</v>
+        <v>13.48722735137031</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.98114529013379</v>
+        <v>16.28376240273709</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.55295486114779</v>
+        <v>21.06193215158939</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.03057449507591</v>
+        <v>12.50119659582795</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>14.20471615945571</v>
+        <v>14.21934093799546</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>21.60021854624154</v>
+        <v>21.56059424351267</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.91064870111625</v>
+        <v>11.85403992938257</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>14.40031019655701</v>
+        <v>14.23456082330615</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>20.5023524115586</v>
+        <v>20.55964636719989</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.374015652494963</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6576498873242697</v>
+        <v>0.6576498873242699</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.05273177418850832</v>
+        <v>-0.05846051506700772</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01626083825106648</v>
+        <v>0.01794697847716335</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1342016884862259</v>
+        <v>0.1400308975335055</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2248421244382927</v>
+        <v>0.2557739334754868</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3793839880740018</v>
+        <v>0.3796601272057548</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.155808107174985</v>
+        <v>1.098079954240851</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06599795223639383</v>
+        <v>0.06799072082874018</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1813558207103986</v>
+        <v>0.1564031553486874</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4470063032919628</v>
+        <v>0.4231878298873689</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3585306005685152</v>
+        <v>0.3323601379974627</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4031295506637256</v>
+        <v>0.3867722675124075</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5062605877188092</v>
+        <v>0.5345560288692734</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.983591321923068</v>
+        <v>1.879065242031583</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.226580596632839</v>
+        <v>2.132984069309503</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.532253730546455</v>
+        <v>3.403804606874761</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5283526515623511</v>
+        <v>0.5155922829713863</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.621744388088281</v>
+        <v>0.628884048702265</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.9366645887939814</v>
+        <v>0.9192542577022438</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.631888153018974</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8.583009873686315</v>
+        <v>8.583009873686326</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.315737292117983</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.602666951851214</v>
+        <v>-9.312289220411243</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.249766211115921</v>
+        <v>-5.695142301032038</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.3641878981706633</v>
+        <v>0.1959507186831939</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.516520373047045</v>
+        <v>-2.352521732276599</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.1135464401383427</v>
+        <v>-0.4373550642689532</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.137291323462046</v>
+        <v>2.913063679625498</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.61931586256369</v>
+        <v>-3.781542582609931</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4084834968532368</v>
+        <v>-0.5688060923398236</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.804570721639365</v>
+        <v>3.825853756841954</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.687927963921009</v>
+        <v>8.138943413631827</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.53685125837547</v>
+        <v>10.9186909008192</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.96048787113662</v>
+        <v>15.86289594537225</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.589941442163473</v>
+        <v>4.698426142869393</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.828206319431889</v>
+        <v>8.204147983476046</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.13298648929261</v>
+        <v>9.6906608560018</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.321601118484659</v>
+        <v>5.506050405118882</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.781534647628654</v>
+        <v>8.268410234821868</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.99912991832082</v>
+        <v>12.08932254746907</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.07552950100122932</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2463138306635624</v>
+        <v>0.2463138306635627</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2658612545070936</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2410723043662494</v>
+        <v>-0.2368593888555835</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.150935349172524</v>
+        <v>-0.1481541157235209</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.005293145797802091</v>
+        <v>0.003884334185825628</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4004010565725958</v>
+        <v>-0.3727707488449558</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04632502529413417</v>
+        <v>-0.09845437085054812</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4037685383122457</v>
+        <v>0.3546325010829837</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1955106460338848</v>
+        <v>-0.2067908439639185</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.02574852928989286</v>
+        <v>-0.02869810761201542</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.194736909418924</v>
+        <v>0.200505372518032</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2902088510163904</v>
+        <v>0.2637041277414071</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3802076533525335</v>
+        <v>0.3517824882573336</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5442479158604524</v>
+        <v>0.5236227451809492</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.422421099227267</v>
+        <v>1.555245548606116</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.777533521720279</v>
+        <v>2.466512857206145</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.337805762078413</v>
+        <v>3.279002440354828</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3771938805339172</v>
+        <v>0.3826940730615541</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6167283697347459</v>
+        <v>0.6011055350274028</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8713611408875823</v>
+        <v>0.8918731220401225</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.05365161108945717</v>
+        <v>-0.02405488209757336</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5121847039648061</v>
+        <v>-0.5729560110815314</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.723832664574531</v>
+        <v>-2.707151954043197</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.03780597043623</v>
+        <v>0.9978488321775435</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3.993356744901302</v>
+        <v>3.903904662727135</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>6.597628316590375</v>
+        <v>6.49140499515104</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.8904024159451565</v>
+        <v>0.7959804175547456</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.133403840288193</v>
+        <v>2.187282996681732</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.265073857449148</v>
+        <v>2.366041579701585</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.795589732664514</v>
+        <v>4.706904195623369</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.104746479592537</v>
+        <v>4.22783833693768</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.128379133375587</v>
+        <v>2.228620339170622</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.220109018345079</v>
+        <v>5.281698929093441</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.090391256794364</v>
+        <v>8.374629971929192</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.66787915303086</v>
+        <v>10.61027157922848</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.397989563134558</v>
+        <v>4.407357990619409</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.621394399602521</v>
+        <v>5.475655071419415</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.647821032321111</v>
+        <v>5.742757328730919</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0009879377974236557</v>
+        <v>-0.000409790660759582</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.009244813442025851</v>
+        <v>-0.009674483503124302</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.0469834326768751</v>
+        <v>-0.04651469103613257</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03730478286551183</v>
+        <v>0.03789548266172307</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1443758169562618</v>
+        <v>0.1413032335927764</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2390964181373519</v>
+        <v>0.2324886392898762</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02114433697359209</v>
+        <v>0.01821004707021629</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.05003076006422229</v>
+        <v>0.0512214211129115</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.0528162761270048</v>
+        <v>0.05554512851197527</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08481685501142783</v>
+        <v>0.08393540051589937</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.0726722519773591</v>
+        <v>0.07574810701313098</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03802409321000559</v>
+        <v>0.03998912133416314</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2020863150051954</v>
+        <v>0.207577807373943</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3152952799593512</v>
+        <v>0.326387114176674</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4179975403665436</v>
+        <v>0.4174866226905976</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1070173151278727</v>
+        <v>0.1065976239687106</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1377947453071497</v>
+        <v>0.1335708706798779</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1379689967777956</v>
+        <v>0.1415285908733705</v>
       </c>
     </row>
     <row r="52">
